--- a/0xVM/instruction_set.xlsx
+++ b/0xVM/instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\0xVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ACC36E-00D1-494C-9288-031708823179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCDCE1A-104A-437E-BA18-DD2D0C1341E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26040" yWindow="2565" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -61,6 +61,118 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">MOVRM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register -&gt; Memory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVMR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Memory -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADDR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register + Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRBS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flag, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRBC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flag, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BREQ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRNQ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">MOVR
 </t>
     </r>
@@ -72,108 +184,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Word -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word -&gt; Memory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Register -&gt; Register</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MOVRM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register -&gt; Memory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVMR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Memory -&gt; Register</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ADDR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register + Register -&gt; acc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Immediate -&gt; Register</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ADDRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Immediate + Register -&gt; acc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVMI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Immediate -&gt; Memory</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+      <t xml:space="preserve">ADD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word + Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PUSH
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word -&gt; Stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PUSHR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register -&gt; Stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack -&gt; Register</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -224,13 +332,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -560,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C68D6B-92A2-4BB8-9A39-79A2CDD34874}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,113 +725,131 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="Q17" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/0xVM/instruction_set.xlsx
+++ b/0xVM/instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\0xVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCDCE1A-104A-437E-BA18-DD2D0C1341E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060A37B-9F6F-4C5D-995E-3FB5D098B5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="2565" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
+    <workbookView xWindow="-26565" yWindow="2385" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -141,6 +141,134 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">BRNQ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word -&gt; Memory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word + Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PUSH
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word -&gt; Stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PUSHR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register -&gt; Stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">BREQ
 </t>
     </r>
@@ -152,136 +280,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Word, Address</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BRNQ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Word, Address</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Word -&gt; Register</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Word -&gt; Memory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOVRR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register -&gt; Register</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ADD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Word + Register -&gt; acc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PUSH
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Word -&gt; Stack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PUSHR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register -&gt; Stack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">POP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stack -&gt; Register</t>
-    </r>
+      <t>Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CALL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CALLR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+  </si>
+  <si>
+    <t>RET</t>
   </si>
 </sst>
 </file>
@@ -666,7 +701,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,8 +766,17 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -755,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -783,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/0xVM/instruction_set.xlsx
+++ b/0xVM/instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\0xVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060A37B-9F6F-4C5D-995E-3FB5D098B5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5866E-75CB-4D66-B532-742687F9BF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26565" yWindow="2385" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
+    <workbookView xWindow="690" yWindow="2190" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -317,6 +317,38 @@
   </si>
   <si>
     <t>RET</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVRPR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register* -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVROR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Register* + Word) -&gt; Register</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -701,7 +733,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +836,12 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/0xVM/instruction_set.xlsx
+++ b/0xVM/instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\0xVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5866E-75CB-4D66-B532-742687F9BF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF863F3-54E5-470F-96E0-D9A29D7E8842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2190" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
+    <workbookView xWindow="-24120" yWindow="2730" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>A</t>
   </si>
@@ -348,6 +348,774 @@
         <scheme val="minor"/>
       </rPr>
       <t>(Register* + Word) -&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register - Word -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUBWR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word - Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUBR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register - Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MULTR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register * Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MULT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word * Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIVWR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word / Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register / Word -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIVR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register / Register -&gt; acc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register +1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LSF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &lt;&lt; Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LSFR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &lt;&lt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RSF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &gt;&gt; Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RSFR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &gt;&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AND
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &amp; Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANDR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &amp; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register | Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register | Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XOR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register ^ Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XORR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register ^ Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JMP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WLSF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &lt;&lt; Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WLSFR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &lt;&lt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WRSF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &gt;&gt; Word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WRSFR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register &gt;&gt; Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BREQR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BREQRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRNQR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRNQRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BREQRW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRNQRW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTRW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTRW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTRR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTERW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTERR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRGTER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTERW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Word, Addresss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRLTERR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register, Register, Addresss</t>
     </r>
   </si>
 </sst>
@@ -732,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C68D6B-92A2-4BB8-9A39-79A2CDD34874}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +1566,9 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
@@ -853,6 +1624,36 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -868,17 +1669,128 @@
         <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
